--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Vim-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Vim-Cd44.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1398.2406615</v>
+        <v>1157.7180175</v>
       </c>
       <c r="H2">
-        <v>2796.481323</v>
+        <v>2315.436035</v>
       </c>
       <c r="I2">
-        <v>0.2082639515313698</v>
+        <v>0.1678450450220723</v>
       </c>
       <c r="J2">
-        <v>0.1565305826915219</v>
+        <v>0.1263939912626865</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N2">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O2">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P2">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q2">
-        <v>27366.35574007304</v>
+        <v>39835.83590846024</v>
       </c>
       <c r="R2">
-        <v>109465.4229602922</v>
+        <v>159343.343633841</v>
       </c>
       <c r="S2">
-        <v>0.00644412595857786</v>
+        <v>0.003853917122864387</v>
       </c>
       <c r="T2">
-        <v>0.003423622468872066</v>
+        <v>0.002004117428172127</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1398.2406615</v>
+        <v>1157.7180175</v>
       </c>
       <c r="H3">
-        <v>2796.481323</v>
+        <v>2315.436035</v>
       </c>
       <c r="I3">
-        <v>0.2082639515313698</v>
+        <v>0.1678450450220723</v>
       </c>
       <c r="J3">
-        <v>0.1565305826915219</v>
+        <v>0.1263939912626865</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>346.487229</v>
       </c>
       <c r="O3">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P3">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q3">
-        <v>161490.844092754</v>
+        <v>133711.5026156495</v>
       </c>
       <c r="R3">
-        <v>968945.0645565238</v>
+        <v>802269.0156938971</v>
       </c>
       <c r="S3">
-        <v>0.03802725325852935</v>
+        <v>0.01293591656112172</v>
       </c>
       <c r="T3">
-        <v>0.03030456562819602</v>
+        <v>0.01009042034494604</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1398.2406615</v>
+        <v>1157.7180175</v>
       </c>
       <c r="H4">
-        <v>2796.481323</v>
+        <v>2315.436035</v>
       </c>
       <c r="I4">
-        <v>0.2082639515313698</v>
+        <v>0.1678450450220723</v>
       </c>
       <c r="J4">
-        <v>0.1565305826915219</v>
+        <v>0.1263939912626865</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N4">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O4">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P4">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q4">
-        <v>335435.5222626287</v>
+        <v>424046.5516413897</v>
       </c>
       <c r="R4">
-        <v>2012613.133575772</v>
+        <v>2544279.309848338</v>
       </c>
       <c r="S4">
-        <v>0.0789870882689899</v>
+        <v>0.04102437488741823</v>
       </c>
       <c r="T4">
-        <v>0.06294615558884276</v>
+        <v>0.03200029816571443</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1398.2406615</v>
+        <v>1157.7180175</v>
       </c>
       <c r="H5">
-        <v>2796.481323</v>
+        <v>2315.436035</v>
       </c>
       <c r="I5">
-        <v>0.2082639515313698</v>
+        <v>0.1678450450220723</v>
       </c>
       <c r="J5">
-        <v>0.1565305826915219</v>
+        <v>0.1263939912626865</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N5">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O5">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P5">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q5">
-        <v>123525.0047694833</v>
+        <v>140265.8293965663</v>
       </c>
       <c r="R5">
-        <v>494100.0190779333</v>
+        <v>561063.3175862654</v>
       </c>
       <c r="S5">
-        <v>0.0290872009897492</v>
+        <v>0.01357001477027865</v>
       </c>
       <c r="T5">
-        <v>0.01545339049938125</v>
+        <v>0.007056691214328844</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1398.2406615</v>
+        <v>1157.7180175</v>
       </c>
       <c r="H6">
-        <v>2796.481323</v>
+        <v>2315.436035</v>
       </c>
       <c r="I6">
-        <v>0.2082639515313698</v>
+        <v>0.1678450450220723</v>
       </c>
       <c r="J6">
-        <v>0.1565305826915219</v>
+        <v>0.1263939912626865</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N6">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O6">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P6">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q6">
-        <v>25342.36020229183</v>
+        <v>778324.034273506</v>
       </c>
       <c r="R6">
-        <v>152054.161213751</v>
+        <v>4669944.205641036</v>
       </c>
       <c r="S6">
-        <v>0.005967523143466358</v>
+        <v>0.07529894263337163</v>
       </c>
       <c r="T6">
-        <v>0.004755620804623654</v>
+        <v>0.05873553521396655</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1398.2406615</v>
+        <v>1157.7180175</v>
       </c>
       <c r="H7">
-        <v>2796.481323</v>
+        <v>2315.436035</v>
       </c>
       <c r="I7">
-        <v>0.2082639515313698</v>
+        <v>0.1678450450220723</v>
       </c>
       <c r="J7">
-        <v>0.1565305826915219</v>
+        <v>0.1263939912626865</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N7">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O7">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P7">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q7">
-        <v>211277.2163120141</v>
+        <v>218738.7829983031</v>
       </c>
       <c r="R7">
-        <v>1267663.297872084</v>
+        <v>1312432.697989818</v>
       </c>
       <c r="S7">
-        <v>0.0497507599120571</v>
+        <v>0.02116187904701764</v>
       </c>
       <c r="T7">
-        <v>0.03964722770160615</v>
+        <v>0.01650692889555852</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>4804.826233</v>
       </c>
       <c r="I8">
-        <v>0.2385550464139863</v>
+        <v>0.2321999724776443</v>
       </c>
       <c r="J8">
-        <v>0.2689459227913463</v>
+        <v>0.2622837149170173</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N8">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O8">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P8">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q8">
-        <v>31346.67433202642</v>
+        <v>55109.63996793607</v>
       </c>
       <c r="R8">
-        <v>188080.0459921585</v>
+        <v>330657.8398076164</v>
       </c>
       <c r="S8">
-        <v>0.007381396328277016</v>
+        <v>0.005331580981390025</v>
       </c>
       <c r="T8">
-        <v>0.005882360420228963</v>
+        <v>0.004158800263680757</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>4804.826233</v>
       </c>
       <c r="I9">
-        <v>0.2385550464139863</v>
+        <v>0.2321999724776443</v>
       </c>
       <c r="J9">
-        <v>0.2689459227913463</v>
+        <v>0.2622837149170173</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>346.487229</v>
       </c>
       <c r="O9">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P9">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q9">
         <v>184978.9919220754</v>
@@ -1013,10 +1013,10 @@
         <v>1664810.927298678</v>
       </c>
       <c r="S9">
-        <v>0.04355815348446643</v>
+        <v>0.01789578875605512</v>
       </c>
       <c r="T9">
-        <v>0.05206835129291022</v>
+        <v>0.02093891415808152</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>4804.826233</v>
       </c>
       <c r="I10">
-        <v>0.2385550464139863</v>
+        <v>0.2321999724776443</v>
       </c>
       <c r="J10">
-        <v>0.2689459227913463</v>
+        <v>0.2622837149170173</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N10">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O10">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P10">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q10">
-        <v>384223.1744566131</v>
+        <v>586633.9254007905</v>
       </c>
       <c r="R10">
-        <v>3458008.570109518</v>
+        <v>5279705.328607115</v>
       </c>
       <c r="S10">
-        <v>0.09047542010781602</v>
+        <v>0.05675388700642543</v>
       </c>
       <c r="T10">
-        <v>0.108152104271991</v>
+        <v>0.06640471590071217</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>4804.826233</v>
       </c>
       <c r="I11">
-        <v>0.2385550464139863</v>
+        <v>0.2321999724776443</v>
       </c>
       <c r="J11">
-        <v>0.2689459227913463</v>
+        <v>0.2622837149170173</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N11">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O11">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P11">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q11">
-        <v>141491.1847652781</v>
+        <v>194046.3700978103</v>
       </c>
       <c r="R11">
-        <v>848947.1085916687</v>
+        <v>1164278.220586861</v>
       </c>
       <c r="S11">
-        <v>0.03331780911262214</v>
+        <v>0.01877301207054141</v>
       </c>
       <c r="T11">
-        <v>0.026551529398582</v>
+        <v>0.01464353778392667</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>4804.826233</v>
       </c>
       <c r="I12">
-        <v>0.2385550464139863</v>
+        <v>0.2321999724776443</v>
       </c>
       <c r="J12">
-        <v>0.2689459227913463</v>
+        <v>0.2622837149170173</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N12">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O12">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P12">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q12">
-        <v>29028.2973594068</v>
+        <v>1076748.016679497</v>
       </c>
       <c r="R12">
-        <v>261254.6762346612</v>
+        <v>9690732.150115471</v>
       </c>
       <c r="S12">
-        <v>0.006835473686149314</v>
+        <v>0.1041699646526077</v>
       </c>
       <c r="T12">
-        <v>0.008170958056584991</v>
+        <v>0.1218837558625806</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>4804.826233</v>
       </c>
       <c r="I13">
-        <v>0.2385550464139863</v>
+        <v>0.2321999724776443</v>
       </c>
       <c r="J13">
-        <v>0.2689459227913463</v>
+        <v>0.2622837149170173</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N13">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O13">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P13">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q13">
-        <v>242006.5775806555</v>
+        <v>302607.3208495381</v>
       </c>
       <c r="R13">
-        <v>2178059.1982259</v>
+        <v>2723465.887645843</v>
       </c>
       <c r="S13">
-        <v>0.05698679369465534</v>
+        <v>0.02927573901062467</v>
       </c>
       <c r="T13">
-        <v>0.06812061935104922</v>
+        <v>0.03425399094803554</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1230.030558333333</v>
+        <v>1372.845337</v>
       </c>
       <c r="H14">
-        <v>3690.091675</v>
+        <v>4118.536011</v>
       </c>
       <c r="I14">
-        <v>0.1832095372680857</v>
+        <v>0.1990340341205815</v>
       </c>
       <c r="J14">
-        <v>0.2065496362597677</v>
+        <v>0.2248208098693574</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N14">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O14">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P14">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q14">
-        <v>24074.14886247081</v>
+        <v>47238.13635596873</v>
       </c>
       <c r="R14">
-        <v>144444.8931748249</v>
+        <v>283428.8181358124</v>
       </c>
       <c r="S14">
-        <v>0.005668889533148406</v>
+        <v>0.004570052526895937</v>
       </c>
       <c r="T14">
-        <v>0.004517634595597747</v>
+        <v>0.003564784201952531</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1230.030558333333</v>
+        <v>1372.845337</v>
       </c>
       <c r="H15">
-        <v>3690.091675</v>
+        <v>4118.536011</v>
       </c>
       <c r="I15">
-        <v>0.1832095372680857</v>
+        <v>0.1990340341205815</v>
       </c>
       <c r="J15">
-        <v>0.2065496362597677</v>
+        <v>0.2248208098693574</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>346.487229</v>
       </c>
       <c r="O15">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P15">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q15">
-        <v>142063.2932474132</v>
+        <v>158557.7922209004</v>
       </c>
       <c r="R15">
-        <v>1278569.639226719</v>
+        <v>1427020.129988104</v>
       </c>
       <c r="S15">
-        <v>0.03345252705445795</v>
+        <v>0.01533967033622419</v>
       </c>
       <c r="T15">
-        <v>0.03998833263049734</v>
+        <v>0.01794813543911495</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1230.030558333333</v>
+        <v>1372.845337</v>
       </c>
       <c r="H16">
-        <v>3690.091675</v>
+        <v>4118.536011</v>
       </c>
       <c r="I16">
-        <v>0.1832095372680857</v>
+        <v>0.1990340341205815</v>
       </c>
       <c r="J16">
-        <v>0.2065496362597677</v>
+        <v>0.2248208098693574</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N16">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O16">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P16">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q16">
-        <v>295082.2087314434</v>
+        <v>502842.9395518253</v>
       </c>
       <c r="R16">
-        <v>2655739.87858299</v>
+        <v>4525586.455966428</v>
       </c>
       <c r="S16">
-        <v>0.06948484260241915</v>
+        <v>0.04864752980967753</v>
       </c>
       <c r="T16">
-        <v>0.08306048132746402</v>
+        <v>0.05691989688595829</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1230.030558333333</v>
+        <v>1372.845337</v>
       </c>
       <c r="H17">
-        <v>3690.091675</v>
+        <v>4118.536011</v>
       </c>
       <c r="I17">
-        <v>0.1832095372680857</v>
+        <v>0.1990340341205815</v>
       </c>
       <c r="J17">
-        <v>0.2065496362597677</v>
+        <v>0.2248208098693574</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N17">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O17">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P17">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q17">
-        <v>108664.7919548685</v>
+        <v>166330.0448958536</v>
       </c>
       <c r="R17">
-        <v>651988.7517292111</v>
+        <v>997980.2693751216</v>
       </c>
       <c r="S17">
-        <v>0.02558797427289316</v>
+        <v>0.0160915967608651</v>
       </c>
       <c r="T17">
-        <v>0.02039149239556385</v>
+        <v>0.01255194980358015</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1230.030558333333</v>
+        <v>1372.845337</v>
       </c>
       <c r="H18">
-        <v>3690.091675</v>
+        <v>4118.536011</v>
       </c>
       <c r="I18">
-        <v>0.1832095372680857</v>
+        <v>0.1990340341205815</v>
       </c>
       <c r="J18">
-        <v>0.2065496362597677</v>
+        <v>0.2248208098693574</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N18">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O18">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P18">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q18">
-        <v>22293.64252336147</v>
+        <v>922952.3122001605</v>
       </c>
       <c r="R18">
-        <v>200642.7827102532</v>
+        <v>8306570.809801444</v>
       </c>
       <c r="S18">
-        <v>0.005249622633739302</v>
+        <v>0.08929100239666499</v>
       </c>
       <c r="T18">
-        <v>0.006275270496629936</v>
+        <v>0.1044746705361177</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1230.030558333333</v>
+        <v>1372.845337</v>
       </c>
       <c r="H19">
-        <v>3690.091675</v>
+        <v>4118.536011</v>
       </c>
       <c r="I19">
-        <v>0.1832095372680857</v>
+        <v>0.1990340341205815</v>
       </c>
       <c r="J19">
-        <v>0.2065496362597677</v>
+        <v>0.2248208098693574</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N19">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O19">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P19">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q19">
-        <v>185860.3025208755</v>
+        <v>259384.8534107963</v>
       </c>
       <c r="R19">
-        <v>1672742.72268788</v>
+        <v>2334463.680697167</v>
       </c>
       <c r="S19">
-        <v>0.04376568117142774</v>
+        <v>0.02509418229025374</v>
       </c>
       <c r="T19">
-        <v>0.05231642481401484</v>
+        <v>0.0293613730026337</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>877.733551</v>
+        <v>1215.709961</v>
       </c>
       <c r="H20">
-        <v>1755.467102</v>
+        <v>2431.419922</v>
       </c>
       <c r="I20">
-        <v>0.1307359045951483</v>
+        <v>0.1762526712493068</v>
       </c>
       <c r="J20">
-        <v>0.09826072719022313</v>
+        <v>0.1327252680410106</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N20">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O20">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P20">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q20">
-        <v>17178.99447717037</v>
+        <v>41831.2765169318</v>
       </c>
       <c r="R20">
-        <v>68715.97790868147</v>
+        <v>167325.1060677272</v>
       </c>
       <c r="S20">
-        <v>0.004045244653839459</v>
+        <v>0.004046965983350688</v>
       </c>
       <c r="T20">
-        <v>0.002149149563182307</v>
+        <v>0.002104506869214857</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>877.733551</v>
+        <v>1215.709961</v>
       </c>
       <c r="H21">
-        <v>1755.467102</v>
+        <v>2431.419922</v>
       </c>
       <c r="I21">
-        <v>0.1307359045951483</v>
+        <v>0.1762526712493068</v>
       </c>
       <c r="J21">
-        <v>0.09826072719022313</v>
+        <v>0.1327252680410106</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>346.487229</v>
       </c>
       <c r="O21">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P21">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q21">
-        <v>101374.4886287734</v>
+        <v>140409.325218196</v>
       </c>
       <c r="R21">
-        <v>608246.9317726403</v>
+        <v>842455.9513091762</v>
       </c>
       <c r="S21">
-        <v>0.02387128121533697</v>
+        <v>0.01358389727058086</v>
       </c>
       <c r="T21">
-        <v>0.0190234304671228</v>
+        <v>0.01059586560682334</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>877.733551</v>
+        <v>1215.709961</v>
       </c>
       <c r="H22">
-        <v>1755.467102</v>
+        <v>2431.419922</v>
       </c>
       <c r="I22">
-        <v>0.1307359045951483</v>
+        <v>0.1762526712493068</v>
       </c>
       <c r="J22">
-        <v>0.09826072719022313</v>
+        <v>0.1327252680410106</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N22">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O22">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P22">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q22">
-        <v>210566.7645019467</v>
+        <v>445287.7202959644</v>
       </c>
       <c r="R22">
-        <v>1263400.58701168</v>
+        <v>2671726.321775786</v>
       </c>
       <c r="S22">
-        <v>0.04958346540653148</v>
+        <v>0.04307935131054709</v>
       </c>
       <c r="T22">
-        <v>0.03951390786155695</v>
+        <v>0.03360324418120154</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>877.733551</v>
+        <v>1215.709961</v>
       </c>
       <c r="H23">
-        <v>1755.467102</v>
+        <v>2431.419922</v>
       </c>
       <c r="I23">
-        <v>0.1307359045951483</v>
+        <v>0.1762526712493068</v>
       </c>
       <c r="J23">
-        <v>0.09826072719022313</v>
+        <v>0.1327252680410106</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N23">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O23">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P23">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q23">
-        <v>77541.75948316214</v>
+        <v>147291.9686898907</v>
       </c>
       <c r="R23">
-        <v>310167.0379326486</v>
+        <v>589167.8747595628</v>
       </c>
       <c r="S23">
-        <v>0.01825924028413994</v>
+        <v>0.01424975847121156</v>
       </c>
       <c r="T23">
-        <v>0.00970073299360388</v>
+        <v>0.007410172141473785</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>877.733551</v>
+        <v>1215.709961</v>
       </c>
       <c r="H24">
-        <v>1755.467102</v>
+        <v>2431.419922</v>
       </c>
       <c r="I24">
-        <v>0.1307359045951483</v>
+        <v>0.1762526712493068</v>
       </c>
       <c r="J24">
-        <v>0.09826072719022313</v>
+        <v>0.1327252680410106</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N24">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O24">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P24">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q24">
-        <v>15908.44868380241</v>
+        <v>817311.5275473431</v>
       </c>
       <c r="R24">
-        <v>95450.69210281449</v>
+        <v>4903869.165284058</v>
       </c>
       <c r="S24">
-        <v>0.003746061335228456</v>
+        <v>0.0790707868655568</v>
       </c>
       <c r="T24">
-        <v>0.0029853000638487</v>
+        <v>0.06167769192923128</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>877.733551</v>
+        <v>1215.709961</v>
       </c>
       <c r="H25">
-        <v>1755.467102</v>
+        <v>2431.419922</v>
       </c>
       <c r="I25">
-        <v>0.1307359045951483</v>
+        <v>0.1762526712493068</v>
       </c>
       <c r="J25">
-        <v>0.09826072719022313</v>
+        <v>0.1327252680410106</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N25">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O25">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P25">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q25">
-        <v>132627.4556484418</v>
+        <v>229695.7577997221</v>
       </c>
       <c r="R25">
-        <v>795764.7338906509</v>
+        <v>1378174.546798333</v>
       </c>
       <c r="S25">
-        <v>0.03123061170007201</v>
+        <v>0.02222191134805979</v>
       </c>
       <c r="T25">
-        <v>0.0248882062409085</v>
+        <v>0.01733378731306583</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>914.9644573333331</v>
+        <v>423.342753</v>
       </c>
       <c r="H26">
-        <v>2744.893372</v>
+        <v>1270.028259</v>
       </c>
       <c r="I26">
-        <v>0.1362813417187949</v>
+        <v>0.06137589841651835</v>
       </c>
       <c r="J26">
-        <v>0.1536429925032817</v>
+        <v>0.06932773708491193</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N26">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O26">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P26">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q26">
-        <v>17907.67749669457</v>
+        <v>14566.77030729878</v>
       </c>
       <c r="R26">
-        <v>107446.0649801674</v>
+        <v>87400.62184379269</v>
       </c>
       <c r="S26">
-        <v>0.004216832175623179</v>
+        <v>0.001409261892762457</v>
       </c>
       <c r="T26">
-        <v>0.003360465362577788</v>
+        <v>0.001099268444326946</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>914.9644573333331</v>
+        <v>423.342753</v>
       </c>
       <c r="H27">
-        <v>2744.893372</v>
+        <v>1270.028259</v>
       </c>
       <c r="I27">
-        <v>0.1362813417187949</v>
+        <v>0.06137589841651835</v>
       </c>
       <c r="J27">
-        <v>0.1536429925032817</v>
+        <v>0.06932773708491193</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>346.487229</v>
       </c>
       <c r="O27">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P27">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q27">
-        <v>105674.4998183051</v>
+        <v>48894.28580140047</v>
       </c>
       <c r="R27">
-        <v>951070.4983647459</v>
+        <v>440048.5722126043</v>
       </c>
       <c r="S27">
-        <v>0.02488383158893533</v>
+        <v>0.004730276670815966</v>
       </c>
       <c r="T27">
-        <v>0.02974552365146415</v>
+        <v>0.005534646083742924</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>914.9644573333331</v>
+        <v>423.342753</v>
       </c>
       <c r="H28">
-        <v>2744.893372</v>
+        <v>1270.028259</v>
       </c>
       <c r="I28">
-        <v>0.1362813417187949</v>
+        <v>0.06137589841651835</v>
       </c>
       <c r="J28">
-        <v>0.1536429925032817</v>
+        <v>0.06932773708491193</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N28">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O28">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P28">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q28">
-        <v>219498.3946955896</v>
+        <v>155061.1045681705</v>
       </c>
       <c r="R28">
-        <v>1975485.552260306</v>
+        <v>1395549.941113535</v>
       </c>
       <c r="S28">
-        <v>0.05168665190786716</v>
+        <v>0.01500138336142263</v>
       </c>
       <c r="T28">
-        <v>0.06178495949450515</v>
+        <v>0.0175523237751127</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>914.9644573333331</v>
+        <v>423.342753</v>
       </c>
       <c r="H29">
-        <v>2744.893372</v>
+        <v>1270.028259</v>
       </c>
       <c r="I29">
-        <v>0.1362813417187949</v>
+        <v>0.06137589841651835</v>
       </c>
       <c r="J29">
-        <v>0.1536429925032817</v>
+        <v>0.06932773708491193</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N29">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O29">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P29">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q29">
-        <v>80830.85556585187</v>
+        <v>51291.00650674698</v>
       </c>
       <c r="R29">
-        <v>484985.1333951113</v>
+        <v>307746.0390404819</v>
       </c>
       <c r="S29">
-        <v>0.01903374419134747</v>
+        <v>0.00496214736599314</v>
       </c>
       <c r="T29">
-        <v>0.01516831484187221</v>
+        <v>0.003870630465174848</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>914.9644573333331</v>
+        <v>423.342753</v>
       </c>
       <c r="H30">
-        <v>2744.893372</v>
+        <v>1270.028259</v>
       </c>
       <c r="I30">
-        <v>0.1362813417187949</v>
+        <v>0.06137589841651835</v>
       </c>
       <c r="J30">
-        <v>0.1536429925032817</v>
+        <v>0.06932773708491193</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N30">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O30">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P30">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q30">
-        <v>16583.23884327677</v>
+        <v>284609.7533378091</v>
       </c>
       <c r="R30">
-        <v>149249.1495894909</v>
+        <v>2561487.780040282</v>
       </c>
       <c r="S30">
-        <v>0.003904958370133769</v>
+        <v>0.02753456471312161</v>
       </c>
       <c r="T30">
-        <v>0.004667891724859831</v>
+        <v>0.03221673516419429</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>914.9644573333331</v>
+        <v>423.342753</v>
       </c>
       <c r="H31">
-        <v>2744.893372</v>
+        <v>1270.028259</v>
       </c>
       <c r="I31">
-        <v>0.1362813417187949</v>
+        <v>0.06137589841651835</v>
       </c>
       <c r="J31">
-        <v>0.1536429925032817</v>
+        <v>0.06932773708491193</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N31">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O31">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P31">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q31">
-        <v>138253.126870477</v>
+        <v>79986.2118258613</v>
       </c>
       <c r="R31">
-        <v>1244278.141834293</v>
+        <v>719875.9064327517</v>
       </c>
       <c r="S31">
-        <v>0.03255532348488799</v>
+        <v>0.007738264412402535</v>
       </c>
       <c r="T31">
-        <v>0.03891583742800255</v>
+        <v>0.00905413315236021</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>691.2131143333335</v>
+        <v>1126.315816666666</v>
       </c>
       <c r="H32">
-        <v>2073.639343</v>
+        <v>3378.94745</v>
       </c>
       <c r="I32">
-        <v>0.1029542184726149</v>
+        <v>0.1632923787138769</v>
       </c>
       <c r="J32">
-        <v>0.1160701385638593</v>
+        <v>0.1844484788250161</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N32">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O32">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P32">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q32">
-        <v>13528.41788963365</v>
+        <v>38755.31984094452</v>
       </c>
       <c r="R32">
-        <v>81170.50733780187</v>
+        <v>232531.9190456671</v>
       </c>
       <c r="S32">
-        <v>0.003185620684358049</v>
+        <v>0.003749382618211392</v>
       </c>
       <c r="T32">
-        <v>0.002538675366304926</v>
+        <v>0.002924635952391042</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>691.2131143333335</v>
+        <v>1126.315816666666</v>
       </c>
       <c r="H33">
-        <v>2073.639343</v>
+        <v>3378.94745</v>
       </c>
       <c r="I33">
-        <v>0.1029542184726149</v>
+        <v>0.1632923787138769</v>
       </c>
       <c r="J33">
-        <v>0.1160701385638593</v>
+        <v>0.1844484788250161</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>346.487229</v>
       </c>
       <c r="O33">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P33">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q33">
-        <v>79832.17221127229</v>
+        <v>130084.6820985684</v>
       </c>
       <c r="R33">
-        <v>718489.5499014505</v>
+        <v>1170762.138887116</v>
       </c>
       <c r="S33">
-        <v>0.01879857801172269</v>
+        <v>0.01258503988504408</v>
       </c>
       <c r="T33">
-        <v>0.02247136036357958</v>
+        <v>0.0147250883110591</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>691.2131143333335</v>
+        <v>1126.315816666666</v>
       </c>
       <c r="H34">
-        <v>2073.639343</v>
+        <v>3378.94745</v>
       </c>
       <c r="I34">
-        <v>0.1029542184726149</v>
+        <v>0.1632923787138769</v>
       </c>
       <c r="J34">
-        <v>0.1160701385638593</v>
+        <v>0.1844484788250161</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N34">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O34">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P34">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q34">
-        <v>165820.8335555401</v>
+        <v>412544.6187215926</v>
       </c>
       <c r="R34">
-        <v>1492387.501999861</v>
+        <v>3712901.568494334</v>
       </c>
       <c r="S34">
-        <v>0.03904686280254511</v>
+        <v>0.03991162062446001</v>
       </c>
       <c r="T34">
-        <v>0.04667566475273172</v>
+        <v>0.04669847244831379</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>691.2131143333335</v>
+        <v>1126.315816666666</v>
       </c>
       <c r="H35">
-        <v>2073.639343</v>
+        <v>3378.94745</v>
       </c>
       <c r="I35">
-        <v>0.1029542184726149</v>
+        <v>0.1632923787138769</v>
       </c>
       <c r="J35">
-        <v>0.1160701385638593</v>
+        <v>0.1844484788250161</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N35">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O35">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P35">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q35">
-        <v>61063.95386410699</v>
+        <v>136461.2278630456</v>
       </c>
       <c r="R35">
-        <v>366383.7231846419</v>
+        <v>818767.3671782737</v>
       </c>
       <c r="S35">
-        <v>0.01437910893093003</v>
+        <v>0.01320193867343446</v>
       </c>
       <c r="T35">
-        <v>0.01145895674635957</v>
+        <v>0.01029792593000473</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>691.2131143333335</v>
+        <v>1126.315816666666</v>
       </c>
       <c r="H36">
-        <v>2073.639343</v>
+        <v>3378.94745</v>
       </c>
       <c r="I36">
-        <v>0.1029542184726149</v>
+        <v>0.1632923787138769</v>
       </c>
       <c r="J36">
-        <v>0.1160701385638593</v>
+        <v>0.1844484788250161</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N36">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O36">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P36">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q36">
-        <v>12527.86605504053</v>
+        <v>757212.6001693313</v>
       </c>
       <c r="R36">
-        <v>112750.7944953648</v>
+        <v>6814913.401523982</v>
       </c>
       <c r="S36">
-        <v>0.002950014522125686</v>
+        <v>0.07325651737664386</v>
       </c>
       <c r="T36">
-        <v>0.003526375205781029</v>
+        <v>0.08571356925246153</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>691.2131143333335</v>
+        <v>1126.315816666666</v>
       </c>
       <c r="H37">
-        <v>2073.639343</v>
+        <v>3378.94745</v>
       </c>
       <c r="I37">
-        <v>0.1029542184726149</v>
+        <v>0.1632923787138769</v>
       </c>
       <c r="J37">
-        <v>0.1160701385638593</v>
+        <v>0.1844484788250161</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N37">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O37">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P37">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q37">
-        <v>104443.8104939953</v>
+        <v>212805.6636290594</v>
       </c>
       <c r="R37">
-        <v>939994.2944459574</v>
+        <v>1915250.972661534</v>
       </c>
       <c r="S37">
-        <v>0.0245940335209333</v>
+        <v>0.02058787953608306</v>
       </c>
       <c r="T37">
-        <v>0.02939910612910251</v>
+        <v>0.02408878693078592</v>
       </c>
     </row>
   </sheetData>
